--- a/walmart_data_dictionary.xlsx
+++ b/walmart_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyrat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF5A4CB1-2FD9-44A9-BF05-D7195F23F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD05C0-B3DD-4329-A182-AFD7D08F428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4515" yWindow="4770" windowWidth="25875" windowHeight="15585" xr2:uid="{F2BFEFC4-F98E-4F08-96EA-AB99914B5273}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,13 +147,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +487,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,93 +513,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
